--- a/Tariff_and_Costing.xlsx
+++ b/Tariff_and_Costing.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jatholding-my.sharepoint.com/personal/ajmeth_rizwan_jatholdings_com/Documents/JAT/HS codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E95992B9-7C32-45B9-8B04-FB299E1FDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5BA257C-40C0-4052-9C26-89F3CD3D722D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E95992B9-7C32-45B9-8B04-FB299E1FDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77811135-11D5-4605-A12A-2E224ADAC529}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DD11739-261D-4B2E-9ED4-2714730430FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TariffTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tariff_and_Costing.xlsx
+++ b/Tariff_and_Costing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jatholding-my.sharepoint.com/personal/ajmeth_rizwan_jatholdings_com/Documents/JAT/HS codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E95992B9-7C32-45B9-8B04-FB299E1FDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77811135-11D5-4605-A12A-2E224ADAC529}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{E95992B9-7C32-45B9-8B04-FB299E1FDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23363243-7694-4D23-926D-97BC5E5A6316}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DD11739-261D-4B2E-9ED4-2714730430FD}"/>
   </bookViews>
@@ -25,32 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Product Type</t>
   </si>
   <si>
-    <t>Kitchen vanities</t>
-  </si>
-  <si>
     <t>HS Code</t>
   </si>
   <si>
-    <t>Duty</t>
-  </si>
-  <si>
-    <t>CESS</t>
-  </si>
-  <si>
-    <t>PAL</t>
-  </si>
-  <si>
-    <t>Import SSCL</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
     <t>Kitchen Pantries</t>
   </si>
   <si>
@@ -96,13 +78,28 @@
     <t>Toilet Partitions</t>
   </si>
   <si>
-    <t>GI grid and acceessories</t>
-  </si>
-  <si>
-    <t>2025.10.24</t>
-  </si>
-  <si>
-    <t>Excise</t>
+    <t>Duty %</t>
+  </si>
+  <si>
+    <t>CESS %</t>
+  </si>
+  <si>
+    <t>PAL %</t>
+  </si>
+  <si>
+    <t>Excise %</t>
+  </si>
+  <si>
+    <t>SSCL %</t>
+  </si>
+  <si>
+    <t>VAT %</t>
+  </si>
+  <si>
+    <t>Bathroom Vanities</t>
+  </si>
+  <si>
+    <t>GI grid and accessories</t>
   </si>
 </sst>
 </file>
@@ -128,21 +125,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,96 +156,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93BF4FB-68AC-4FA2-8206-A6F209D2418D}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,59 +494,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>94039090</v>
+      </c>
+      <c r="C2" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>30%</f>
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>2.5%</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="2">
+        <v>94034090</v>
+      </c>
+      <c r="C3" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="3">
+        <f>30%</f>
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="0">2.5%</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <f>18%</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>94039090</v>
+        <v>94035090</v>
       </c>
       <c r="C4" s="3">
         <f>20%</f>
@@ -654,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f>2.5%</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H4" s="3">
@@ -664,182 +617,182 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>94034090</v>
+        <v>73089090</v>
       </c>
       <c r="C5" s="3">
         <f>20%</f>
         <v>0.2</v>
       </c>
       <c r="D5" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>76109090</v>
+      </c>
+      <c r="C6" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="3">
+        <f>15%</f>
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>2.5%</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>68069000</v>
+      </c>
+      <c r="C7" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="3">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>94013090</v>
+      </c>
+      <c r="C8" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>94038990</v>
+      </c>
+      <c r="C9" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="3">
         <f>30%</f>
         <v>0.3</v>
       </c>
-      <c r="E5" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G17" si="0">2.5%</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>94035090</v>
-      </c>
-      <c r="C6" s="3">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="E9" s="3">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="3">
+        <f>0%</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>94033090</v>
+      </c>
+      <c r="C10" s="3">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
         <f>30%</f>
         <v>0.3</v>
       </c>
-      <c r="E6" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>73089090</v>
-      </c>
-      <c r="C7" s="3">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2">
-        <v>76109090</v>
-      </c>
-      <c r="C8" s="3">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="3">
-        <f>15%</f>
-        <v>0.15</v>
-      </c>
-      <c r="E8" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <f>2.5%</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>68069000</v>
-      </c>
-      <c r="C9" s="3">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="3">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H9" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>94013090</v>
-      </c>
-      <c r="C10" s="3">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="3">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
       <c r="E10" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>10%</f>
+        <v>0.1</v>
       </c>
       <c r="F10" s="3">
         <f>0%</f>
@@ -856,18 +809,18 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>94038990</v>
+        <v>73083000</v>
       </c>
       <c r="C11" s="3">
         <f>20%</f>
         <v>0.2</v>
       </c>
       <c r="D11" s="3">
-        <f>30%</f>
-        <v>0.3</v>
+        <f>10%</f>
+        <v>0.1</v>
       </c>
       <c r="E11" s="3">
         <f>10%</f>
@@ -888,22 +841,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>94033090</v>
+        <v>44182900</v>
       </c>
       <c r="C12" s="3">
         <f>20%</f>
         <v>0.2</v>
       </c>
       <c r="D12" s="3">
-        <f>30%</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="3">
-        <f>10%</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <f>0%</f>
@@ -920,21 +871,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>73083000</v>
+        <v>39189000</v>
       </c>
       <c r="C13" s="3">
         <f>20%</f>
         <v>0.2</v>
       </c>
       <c r="D13" s="3">
-        <f>10%</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="3">
-        <f>10%</f>
         <v>0.1</v>
       </c>
       <c r="F13" s="3">
@@ -952,20 +901,20 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44182900</v>
+        <v>44123310</v>
       </c>
       <c r="C14" s="3">
         <f>20%</f>
         <v>0.2</v>
       </c>
       <c r="D14" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="3">
         <f>0%</f>
@@ -982,7 +931,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>39189000</v>
@@ -1012,17 +961,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44123310</v>
+        <v>39189000</v>
       </c>
       <c r="C16" s="3">
         <f>20%</f>
         <v>0.2</v>
       </c>
       <c r="D16" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="3">
         <v>0.1</v>
@@ -1032,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f>2.5%</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H16" s="3">
@@ -1042,27 +991,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>39189000</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44101900</v>
       </c>
       <c r="C17" s="3">
-        <f>20%</f>
-        <v>0.2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <f>0%</f>
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G17:G18" si="1">2.5%</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H17" s="3">
@@ -1072,10 +1021,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>39189000</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39259000</v>
       </c>
       <c r="C18" s="3">
         <f>20%</f>
@@ -1092,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <f>2.5%</f>
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H18" s="3">
@@ -1100,70 +1049,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44101900</v>
-      </c>
-      <c r="C19" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" ref="G19:G20" si="1">2.5%</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H19" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1">
-        <v>39259000</v>
-      </c>
-      <c r="C20" s="3">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="3">
-        <f>0%</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H20" s="3">
-        <f>18%</f>
-        <v>0.18</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.31666666666666665" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Tariff_and_Costing.xlsx
+++ b/Tariff_and_Costing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jatholding-my.sharepoint.com/personal/ajmeth_rizwan_jatholdings_com/Documents/JAT/HS codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{E95992B9-7C32-45B9-8B04-FB299E1FDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23363243-7694-4D23-926D-97BC5E5A6316}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E95992B9-7C32-45B9-8B04-FB299E1FDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BD4DBA-172B-4A41-A1E1-0970CA505029}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DD11739-261D-4B2E-9ED4-2714730430FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Product Type</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>GI grid and accessories</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Hob/Oven</t>
+  </si>
+  <si>
+    <t>Hood</t>
+  </si>
+  <si>
+    <t>Wine Chiller</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>Food waste disposer</t>
+  </si>
+  <si>
+    <t>Coffee Machine</t>
+  </si>
+  <si>
+    <t>Gas Hob</t>
   </si>
 </sst>
 </file>
@@ -161,11 +191,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93BF4FB-68AC-4FA2-8206-A6F209D2418D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:G18" si="1">2.5%</f>
+        <f t="shared" ref="G17:G28" si="1">2.5%</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H17" s="3">
@@ -1045,6 +1076,286 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H18" s="3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>84182190</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>85166090</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>84146000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>84186990</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>85165000</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>84501143</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>84221100</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>85098000</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>85167100</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H27" s="4">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>73211100</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H28" s="4">
         <f>18%</f>
         <v>0.18</v>
       </c>
